--- a/doc/再总结原型链.xlsx
+++ b/doc/再总结原型链.xlsx
@@ -1196,7 +1196,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -1204,7 +1204,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1213,8 +1213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8629650" y="6962775"/>
-          <a:ext cx="2657475" cy="114300"/>
+          <a:off x="8658225" y="1990725"/>
+          <a:ext cx="2628900" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3626,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
